--- a/cod_Migration/template/tamplate.xlsx
+++ b/cod_Migration/template/tamplate.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="149" uniqueCount="117">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="52" uniqueCount="35">
   <si>
     <t>Группа</t>
   </si>
@@ -70,252 +70,33 @@
     <t>Случайные С2 &lt; 2 тн в год</t>
   </si>
   <si>
-    <t>-</t>
-  </si>
-  <si>
-    <t>48,97%</t>
-  </si>
-  <si>
     <t>Общее количество фирм</t>
   </si>
   <si>
-    <t>10,95%</t>
-  </si>
-  <si>
     <t>Общее количество накладных</t>
   </si>
   <si>
-    <t xml:space="preserve">7091332,50 </t>
-  </si>
-  <si>
-    <t xml:space="preserve">6484046,00 </t>
-  </si>
-  <si>
-    <t xml:space="preserve">5847153,71 </t>
-  </si>
-  <si>
-    <t xml:space="preserve">1302276,71 </t>
-  </si>
-  <si>
-    <t>20724808,92</t>
-  </si>
-  <si>
-    <t>2,69%</t>
-  </si>
-  <si>
     <t>Сумма продаж</t>
   </si>
   <si>
-    <t xml:space="preserve">29182,44 </t>
-  </si>
-  <si>
-    <t xml:space="preserve">20074,45 </t>
-  </si>
-  <si>
-    <t xml:space="preserve">12547,54 </t>
-  </si>
-  <si>
-    <t xml:space="preserve">7001,49 </t>
-  </si>
-  <si>
-    <t xml:space="preserve">17201,48 </t>
-  </si>
-  <si>
-    <t>6,85%</t>
-  </si>
-  <si>
     <t>Средния цена за одну расх</t>
   </si>
   <si>
-    <t>34,22%</t>
-  </si>
-  <si>
-    <t>31,29%</t>
-  </si>
-  <si>
-    <t>28,21%</t>
-  </si>
-  <si>
-    <t>6,28%</t>
-  </si>
-  <si>
     <t>Процентное отношение по продажам</t>
   </si>
   <si>
     <t>Основные АВС &gt; 2 тн в год</t>
   </si>
   <si>
-    <t>51,03%</t>
-  </si>
-  <si>
-    <t>89,05%</t>
-  </si>
-  <si>
     <t>Сумма расходных</t>
   </si>
   <si>
-    <t xml:space="preserve">13084454,51 </t>
-  </si>
-  <si>
-    <t xml:space="preserve">40942495,97 </t>
-  </si>
-  <si>
-    <t xml:space="preserve">106741161,89 </t>
-  </si>
-  <si>
-    <t xml:space="preserve">283804442,56 </t>
-  </si>
-  <si>
-    <t xml:space="preserve">275850395,60 </t>
-  </si>
-  <si>
-    <t xml:space="preserve">29057395,32 </t>
-  </si>
-  <si>
-    <t>749480345,8</t>
-  </si>
-  <si>
-    <t>97,31%</t>
-  </si>
-  <si>
-    <t xml:space="preserve">451188,09 </t>
-  </si>
-  <si>
-    <t xml:space="preserve">233957,12 </t>
-  </si>
-  <si>
-    <t xml:space="preserve">104341,31 </t>
-  </si>
-  <si>
-    <t xml:space="preserve">80925,13 </t>
-  </si>
-  <si>
-    <t xml:space="preserve">164467,55 </t>
-  </si>
-  <si>
-    <t>65,53%</t>
-  </si>
-  <si>
-    <t>1,75%</t>
-  </si>
-  <si>
-    <t>5,46%</t>
-  </si>
-  <si>
-    <t>14,24%</t>
-  </si>
-  <si>
-    <t>37,87%</t>
-  </si>
-  <si>
-    <t>36,81%</t>
-  </si>
-  <si>
-    <t>3,88%</t>
-  </si>
-  <si>
     <t>Все АВС</t>
   </si>
   <si>
-    <t>20175787,01</t>
-  </si>
-  <si>
-    <t>47426541,97</t>
-  </si>
-  <si>
-    <t>112588315,6</t>
-  </si>
-  <si>
-    <t>285106719,3</t>
-  </si>
-  <si>
-    <t>275850395,6</t>
-  </si>
-  <si>
-    <t>29057395,32</t>
-  </si>
-  <si>
-    <t>770205154,8</t>
-  </si>
-  <si>
-    <t xml:space="preserve">74175,69 </t>
-  </si>
-  <si>
-    <t xml:space="preserve">95234,02 </t>
-  </si>
-  <si>
-    <t xml:space="preserve">75613,38 </t>
-  </si>
-  <si>
-    <t xml:space="preserve">77201,93 </t>
-  </si>
-  <si>
-    <t xml:space="preserve">59081,26 </t>
-  </si>
-  <si>
-    <t xml:space="preserve">57312,42 </t>
-  </si>
-  <si>
-    <t>29,13%</t>
-  </si>
-  <si>
-    <t>2,62%</t>
-  </si>
-  <si>
-    <t>6,16%</t>
-  </si>
-  <si>
-    <t>14,62%</t>
-  </si>
-  <si>
-    <t>37,02%</t>
-  </si>
-  <si>
-    <t>35,82%</t>
-  </si>
-  <si>
-    <t>3,77%</t>
-  </si>
-  <si>
     <t xml:space="preserve">Важные                                  Основные АВС &gt; 2 тн в год + Постоянные С2 &lt; 2 тн в год  </t>
   </si>
   <si>
-    <t>60,62%</t>
-  </si>
-  <si>
-    <t>94,91%</t>
-  </si>
-  <si>
-    <t>13084454,51</t>
-  </si>
-  <si>
-    <t>40942495,97</t>
-  </si>
-  <si>
-    <t>702602825,8</t>
-  </si>
-  <si>
-    <t>756629776,3</t>
-  </si>
-  <si>
-    <t>98,24%</t>
-  </si>
-  <si>
-    <t xml:space="preserve">67831,90 </t>
-  </si>
-  <si>
-    <t xml:space="preserve">250992,37 </t>
-  </si>
-  <si>
-    <t>1,73%</t>
-  </si>
-  <si>
-    <t>5,41%</t>
-  </si>
-  <si>
-    <t>92,86%</t>
-  </si>
-  <si>
     <t>ИТОГО АВС</t>
   </si>
   <si>
@@ -337,45 +118,20 @@
     <t>Количество фирм</t>
   </si>
   <si>
-    <t>39,38%</t>
-  </si>
-  <si>
-    <t>2,99%</t>
-  </si>
-  <si>
-    <t>7,42%</t>
-  </si>
-  <si>
-    <t>50,21%</t>
-  </si>
-  <si>
     <t>Продажи по группам</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13575378,50 </t>
-  </si>
-  <si>
-    <t>1,76%</t>
-  </si>
-  <si>
-    <t>1,70%</t>
-  </si>
-  <si>
-    <t>5,32%</t>
-  </si>
-  <si>
-    <t>91,22%</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="4">
+  <numFmts count="6">
+    <numFmt numFmtId="176" formatCode="0.00;[Red]0.00"/>
+    <numFmt numFmtId="42" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;_);_(@_)"/>
+    <numFmt numFmtId="177" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="178" formatCode="0.00_ "/>
     <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
-    <numFmt numFmtId="42" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;_);_(@_)"/>
-    <numFmt numFmtId="176" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="177" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="179" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="22">
     <font>
@@ -411,23 +167,14 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="0"/>
+      <color rgb="FF3F3F76"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
       <sz val="11"/>
-      <color rgb="FF800080"/>
+      <color rgb="FF9C0006"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -440,8 +187,15 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
-      <sz val="15"/>
+      <sz val="18"/>
       <color theme="3"/>
       <name val="Calibri"/>
       <charset val="134"/>
@@ -449,7 +203,7 @@
     </font>
     <font>
       <b/>
-      <sz val="18"/>
+      <sz val="15"/>
       <color theme="3"/>
       <name val="Calibri"/>
       <charset val="134"/>
@@ -472,14 +226,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
@@ -487,6 +233,29 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
       <sz val="11"/>
       <color rgb="FFFA7D00"/>
       <name val="Calibri"/>
@@ -502,8 +271,16 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color rgb="FF3F3F76"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -517,30 +294,9 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
+      <u/>
       <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
+      <color rgb="FF800080"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -567,49 +323,175 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="6" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -621,138 +503,12 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="8"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
   </fills>
-  <borders count="54">
+  <borders count="55">
     <border>
       <left/>
       <right/>
@@ -1302,6 +1058,19 @@
       <diagonal/>
     </border>
     <border>
+      <left style="medium">
+        <color auto="1"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left/>
       <right style="medium">
         <color auto="1"/>
@@ -1321,6 +1090,21 @@
         <color auto="1"/>
       </top>
       <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -1343,21 +1127,6 @@
     </border>
     <border>
       <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
         <color rgb="FFB2B2B2"/>
       </left>
       <right style="thin">
@@ -1368,6 +1137,36 @@
       </top>
       <bottom style="thin">
         <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1381,21 +1180,6 @@
       <diagonal/>
     </border>
     <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left/>
       <right/>
       <top style="thin">
@@ -1406,162 +1190,147 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="50" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="52" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="6" borderId="53" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="53" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="54" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="10" borderId="52" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="49" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="11" borderId="48" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="50" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="47" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="6" borderId="48" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="47" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="10" borderId="47" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="49" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="46" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="48" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="177" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="46" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="10" borderId="51" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="48" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="179" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="17" borderId="51" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -1571,7 +1340,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="115">
+  <cellXfs count="109">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1587,11 +1356,11 @@
     <xf numFmtId="0" fontId="1" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="1" fillId="2" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="1" fillId="2" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
+    <xf numFmtId="49" fontId="1" fillId="2" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="2" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1617,19 +1386,22 @@
     <xf numFmtId="0" fontId="1" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1">
+    <xf numFmtId="10" fontId="0" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="10" fontId="0" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1665,18 +1437,12 @@
     <xf numFmtId="0" fontId="1" fillId="2" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1692,18 +1458,12 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="10" fontId="1" fillId="0" borderId="21" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1719,14 +1479,11 @@
     <xf numFmtId="0" fontId="1" fillId="2" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="1" fillId="2" borderId="28" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="1" fillId="2" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="1" fillId="2" borderId="29" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
+    <xf numFmtId="49" fontId="1" fillId="2" borderId="28" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="2" borderId="29" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
@@ -1734,24 +1491,12 @@
     <xf numFmtId="0" fontId="1" fillId="2" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="32" xfId="0" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
@@ -1761,19 +1506,25 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="34" xfId="0" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="35" xfId="0" applyBorder="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="33" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="10" fontId="0" fillId="0" borderId="34" xfId="0" applyNumberFormat="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="10" fontId="0" fillId="0" borderId="35" xfId="0" applyNumberFormat="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="35" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="4" fontId="0" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="4" fontId="0" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="36" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1794,6 +1545,9 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="38" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="10" fontId="0" fillId="0" borderId="39" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="39" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1803,33 +1557,15 @@
     <xf numFmtId="0" fontId="1" fillId="2" borderId="40" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="40" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="41" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="41" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="36" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="37" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="38" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -1842,79 +1578,94 @@
     <xf numFmtId="0" fontId="1" fillId="2" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="43" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="10" fontId="1" fillId="3" borderId="1" xfId="47" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="44" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="10" fontId="1" fillId="3" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="38" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="44" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="10" fontId="1" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="1" fillId="0" borderId="21" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="43" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="178" fontId="1" fillId="0" borderId="44" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="36" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1">
+    <xf numFmtId="9" fontId="1" fillId="3" borderId="1" xfId="47" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="37" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="38" xfId="0" applyFont="1" applyBorder="1">
+    <xf numFmtId="9" fontId="1" fillId="3" borderId="2" xfId="47" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="37" xfId="0" applyFont="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1">
+    <xf numFmtId="9" fontId="1" fillId="0" borderId="2" xfId="47" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="178" fontId="1" fillId="0" borderId="37" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="39" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="43" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="1" fillId="3" borderId="1" xfId="47" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="1" fillId="3" borderId="2" xfId="47" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="1" fillId="0" borderId="2" xfId="47" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="37" xfId="0" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="44" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="45" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="45" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="10" fontId="1" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="46" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="22" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -2236,20 +1987,23 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="B2:K36"/>
+  <dimension ref="B1:K36"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B6" sqref="B6:K6"/>
+      <selection activeCell="E36" sqref="E36:F36"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.8" defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="3.3" customWidth="1"/>
     <col min="2" max="2" width="26.4" customWidth="1"/>
-    <col min="3" max="10" width="12.1" customWidth="1"/>
+    <col min="3" max="6" width="12.1" customWidth="1"/>
+    <col min="7" max="8" width="13.3" customWidth="1"/>
+    <col min="9" max="10" width="12.1" customWidth="1"/>
     <col min="11" max="11" width="34.2" customWidth="1"/>
   </cols>
   <sheetData>
+    <row r="1" ht="15.75"/>
     <row r="2" ht="15.75" spans="2:11">
       <c r="B2" s="1" t="s">
         <v>0</v>
@@ -2260,19 +2014,19 @@
       <c r="D2" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="E2" s="44" t="s">
+      <c r="E2" s="41" t="s">
         <v>3</v>
       </c>
-      <c r="F2" s="45"/>
-      <c r="G2" s="45"/>
-      <c r="H2" s="46"/>
-      <c r="I2" s="80" t="s">
+      <c r="F2" s="42"/>
+      <c r="G2" s="42"/>
+      <c r="H2" s="43"/>
+      <c r="I2" s="62" t="s">
         <v>4</v>
       </c>
-      <c r="J2" s="81" t="s">
+      <c r="J2" s="73" t="s">
         <v>5</v>
       </c>
-      <c r="K2" s="82" t="s">
+      <c r="K2" s="63" t="s">
         <v>6</v>
       </c>
     </row>
@@ -2280,35 +2034,35 @@
       <c r="B3" s="2"/>
       <c r="C3" s="2"/>
       <c r="D3" s="2"/>
-      <c r="E3" s="47" t="s">
+      <c r="E3" s="44" t="s">
         <v>7</v>
       </c>
       <c r="F3" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="G3" s="47" t="s">
+      <c r="G3" s="44" t="s">
         <v>9</v>
       </c>
       <c r="H3" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="I3" s="83"/>
-      <c r="J3" s="84"/>
-      <c r="K3" s="85"/>
+      <c r="I3" s="64"/>
+      <c r="J3" s="74"/>
+      <c r="K3" s="65"/>
     </row>
     <row r="4" spans="2:11">
       <c r="B4" s="3"/>
       <c r="C4" s="3"/>
       <c r="D4" s="3"/>
-      <c r="E4" s="48"/>
+      <c r="E4" s="45"/>
       <c r="F4" s="3"/>
-      <c r="G4" s="48"/>
+      <c r="G4" s="45"/>
       <c r="H4" s="3"/>
-      <c r="I4" s="48"/>
-      <c r="J4" s="86"/>
-      <c r="K4" s="87"/>
-    </row>
-    <row r="5" ht="15.75" spans="2:11">
+      <c r="I4" s="45"/>
+      <c r="J4" s="75"/>
+      <c r="K4" s="76"/>
+    </row>
+    <row r="5" spans="2:11">
       <c r="B5" s="4" t="s">
         <v>11</v>
       </c>
@@ -2318,21 +2072,21 @@
       <c r="D5" s="6" t="s">
         <v>12</v>
       </c>
-      <c r="E5" s="49" t="s">
+      <c r="E5" s="46" t="s">
         <v>13</v>
       </c>
       <c r="F5" s="6" t="s">
         <v>14</v>
       </c>
-      <c r="G5" s="50" t="s">
+      <c r="G5" s="6" t="s">
         <v>15</v>
       </c>
-      <c r="H5" s="51" t="s">
+      <c r="H5" s="47" t="s">
         <v>16</v>
       </c>
-      <c r="I5" s="88"/>
-      <c r="J5" s="89"/>
-      <c r="K5" s="90" t="s">
+      <c r="I5" s="77"/>
+      <c r="J5" s="78"/>
+      <c r="K5" s="77" t="s">
         <v>11</v>
       </c>
     </row>
@@ -2348,7 +2102,7 @@
       <c r="H6" s="8"/>
       <c r="I6" s="8"/>
       <c r="J6" s="8"/>
-      <c r="K6" s="91"/>
+      <c r="K6" s="79"/>
     </row>
     <row r="7" spans="2:11">
       <c r="B7" s="9" t="s">
@@ -2360,26 +2114,24 @@
       <c r="D7" s="11">
         <v>139</v>
       </c>
-      <c r="E7" s="52">
+      <c r="E7" s="48">
         <v>81</v>
       </c>
-      <c r="F7" s="53">
+      <c r="F7" s="49">
         <v>12</v>
       </c>
-      <c r="G7" s="54" t="s">
+      <c r="G7" s="10"/>
+      <c r="H7" s="49"/>
+      <c r="I7" s="80">
+        <f>SUM(C7:H7)</f>
+        <v>475</v>
+      </c>
+      <c r="J7" s="81">
+        <f>I7/$I$19</f>
+        <v>0.489690721649485</v>
+      </c>
+      <c r="K7" s="82" t="s">
         <v>18</v>
-      </c>
-      <c r="H7" s="55" t="s">
-        <v>18</v>
-      </c>
-      <c r="I7" s="92">
-        <v>475</v>
-      </c>
-      <c r="J7" s="93" t="s">
-        <v>19</v>
-      </c>
-      <c r="K7" s="94" t="s">
-        <v>20</v>
       </c>
     </row>
     <row r="8" spans="2:11">
@@ -2390,131 +2142,121 @@
       <c r="D8" s="14">
         <v>323</v>
       </c>
-      <c r="E8" s="56">
+      <c r="E8" s="50">
         <v>466</v>
       </c>
-      <c r="F8" s="57">
+      <c r="F8" s="51">
         <v>186</v>
       </c>
-      <c r="G8" s="58" t="s">
-        <v>18</v>
-      </c>
-      <c r="H8" s="59" t="s">
-        <v>18</v>
-      </c>
-      <c r="I8" s="95">
+      <c r="G8" s="13"/>
+      <c r="H8" s="51"/>
+      <c r="I8" s="83">
+        <f t="shared" ref="I8:I14" si="0">SUM(C8:H8)</f>
         <v>1218</v>
       </c>
-      <c r="J8" s="96" t="s">
-        <v>21</v>
-      </c>
-      <c r="K8" s="97" t="s">
-        <v>22</v>
+      <c r="J8" s="84">
+        <f>I8/$I$20</f>
+        <v>0.109453630481668</v>
+      </c>
+      <c r="K8" s="85" t="s">
+        <v>19</v>
       </c>
     </row>
     <row r="9" spans="2:11">
       <c r="B9" s="12"/>
-      <c r="C9" s="15" t="s">
-        <v>23</v>
-      </c>
-      <c r="D9" s="16" t="s">
-        <v>24</v>
-      </c>
-      <c r="E9" s="60" t="s">
-        <v>25</v>
-      </c>
-      <c r="F9" s="61" t="s">
-        <v>26</v>
-      </c>
-      <c r="G9" s="62" t="s">
-        <v>18</v>
-      </c>
-      <c r="H9" s="63" t="s">
-        <v>18</v>
-      </c>
-      <c r="I9" s="98" t="s">
-        <v>27</v>
-      </c>
-      <c r="J9" s="99" t="s">
-        <v>28</v>
-      </c>
-      <c r="K9" s="97" t="s">
-        <v>29</v>
+      <c r="C9" s="15">
+        <v>7091332.5</v>
+      </c>
+      <c r="D9" s="16">
+        <v>6484046</v>
+      </c>
+      <c r="E9" s="52">
+        <v>5847153.71</v>
+      </c>
+      <c r="F9" s="53">
+        <v>1302276.71</v>
+      </c>
+      <c r="G9" s="54"/>
+      <c r="H9" s="55"/>
+      <c r="I9" s="86">
+        <f t="shared" si="0"/>
+        <v>20724808.92</v>
+      </c>
+      <c r="J9" s="87">
+        <f>I9/$I$21</f>
+        <v>0.0269081669885589</v>
+      </c>
+      <c r="K9" s="85" t="s">
+        <v>20</v>
       </c>
     </row>
     <row r="10" spans="2:11">
       <c r="B10" s="12"/>
-      <c r="C10" s="15" t="s">
-        <v>30</v>
-      </c>
-      <c r="D10" s="16" t="s">
-        <v>31</v>
-      </c>
-      <c r="E10" s="60" t="s">
-        <v>32</v>
-      </c>
-      <c r="F10" s="61" t="s">
-        <v>33</v>
-      </c>
-      <c r="G10" s="62" t="s">
-        <v>18</v>
-      </c>
-      <c r="H10" s="63" t="s">
-        <v>18</v>
-      </c>
-      <c r="I10" s="98" t="s">
-        <v>34</v>
-      </c>
-      <c r="J10" s="99" t="s">
-        <v>35</v>
-      </c>
-      <c r="K10" s="97" t="s">
-        <v>36</v>
+      <c r="C10" s="17">
+        <v>29182.44</v>
+      </c>
+      <c r="D10" s="16">
+        <v>20074.45</v>
+      </c>
+      <c r="E10" s="52">
+        <v>12547.54</v>
+      </c>
+      <c r="F10" s="53">
+        <v>7001.49</v>
+      </c>
+      <c r="G10" s="54"/>
+      <c r="H10" s="55"/>
+      <c r="I10" s="86">
+        <f>AVERAGE(C10:H10)</f>
+        <v>17201.48</v>
+      </c>
+      <c r="J10" s="87">
+        <f>I10/$I$28</f>
+        <v>0.0685338761001827</v>
+      </c>
+      <c r="K10" s="85" t="s">
+        <v>21</v>
       </c>
     </row>
     <row r="11" ht="15.75" spans="2:11">
-      <c r="B11" s="17"/>
-      <c r="C11" s="18" t="s">
-        <v>37</v>
-      </c>
-      <c r="D11" s="19" t="s">
-        <v>38</v>
-      </c>
-      <c r="E11" s="64" t="s">
-        <v>39</v>
-      </c>
-      <c r="F11" s="65" t="s">
-        <v>40</v>
-      </c>
-      <c r="G11" s="66" t="s">
-        <v>18</v>
-      </c>
-      <c r="H11" s="67" t="s">
-        <v>18</v>
-      </c>
-      <c r="I11" s="100">
+      <c r="B11" s="18"/>
+      <c r="C11" s="19">
+        <v>0.3422</v>
+      </c>
+      <c r="D11" s="20">
+        <v>0.3129</v>
+      </c>
+      <c r="E11" s="56">
+        <v>0.2821</v>
+      </c>
+      <c r="F11" s="57">
+        <v>0.0628</v>
+      </c>
+      <c r="G11" s="58"/>
+      <c r="H11" s="59"/>
+      <c r="I11" s="88">
         <v>1</v>
       </c>
-      <c r="J11" s="101"/>
-      <c r="K11" s="102" t="s">
-        <v>41</v>
+      <c r="J11" s="89"/>
+      <c r="K11" s="90" t="s">
+        <v>22</v>
       </c>
     </row>
     <row r="12" ht="9" customHeight="1" spans="2:11">
-      <c r="B12" s="20"/>
-      <c r="C12" s="21"/>
-      <c r="D12" s="21"/>
-      <c r="E12" s="21"/>
-      <c r="F12" s="21"/>
-      <c r="G12" s="21"/>
-      <c r="H12" s="21"/>
-      <c r="I12" s="21"/>
-      <c r="J12" s="21"/>
-      <c r="K12" s="103"/>
+      <c r="B12" s="21"/>
+      <c r="C12" s="22"/>
+      <c r="D12" s="22"/>
+      <c r="E12" s="22"/>
+      <c r="F12" s="22"/>
+      <c r="G12" s="22"/>
+      <c r="H12" s="22"/>
+      <c r="I12" s="22"/>
+      <c r="J12" s="22"/>
+      <c r="K12" s="91"/>
     </row>
     <row r="13" spans="2:11">
-      <c r="B13" s="22" t="s">
-        <v>42</v>
+      <c r="B13" s="23" t="s">
+        <v>23</v>
       </c>
       <c r="C13" s="10">
         <v>29</v>
@@ -2522,344 +2264,392 @@
       <c r="D13" s="11">
         <v>72</v>
       </c>
-      <c r="E13" s="52">
+      <c r="E13" s="48">
         <v>152</v>
       </c>
-      <c r="F13" s="53">
+      <c r="F13" s="49">
         <v>177</v>
       </c>
       <c r="G13" s="10">
         <v>63</v>
       </c>
-      <c r="H13" s="11">
+      <c r="H13" s="49">
         <v>2</v>
       </c>
-      <c r="I13" s="92">
+      <c r="I13" s="80">
+        <f t="shared" si="0"/>
         <v>495</v>
       </c>
-      <c r="J13" s="93" t="s">
-        <v>43</v>
-      </c>
-      <c r="K13" s="94" t="s">
-        <v>20</v>
+      <c r="J13" s="81">
+        <f>I13/$I$19</f>
+        <v>0.510309278350515</v>
+      </c>
+      <c r="K13" s="82" t="s">
+        <v>18</v>
       </c>
     </row>
     <row r="14" spans="2:11">
-      <c r="B14" s="23"/>
+      <c r="B14" s="24"/>
       <c r="C14" s="13">
         <v>29</v>
       </c>
       <c r="D14" s="14">
         <v>175</v>
       </c>
-      <c r="E14" s="56">
+      <c r="E14" s="50">
         <v>1023</v>
       </c>
-      <c r="F14" s="57">
+      <c r="F14" s="51">
         <v>3507</v>
       </c>
       <c r="G14" s="13">
         <v>4669</v>
       </c>
-      <c r="H14" s="14">
+      <c r="H14" s="51">
         <v>507</v>
       </c>
-      <c r="I14" s="95">
+      <c r="I14" s="83">
+        <f t="shared" si="0"/>
         <v>9910</v>
       </c>
-      <c r="J14" s="96" t="s">
-        <v>44</v>
-      </c>
-      <c r="K14" s="97" t="s">
-        <v>45</v>
+      <c r="J14" s="84">
+        <f>I14/$I$20</f>
+        <v>0.890546369518332</v>
+      </c>
+      <c r="K14" s="85" t="s">
+        <v>24</v>
       </c>
     </row>
     <row r="15" spans="2:11">
-      <c r="B15" s="23"/>
-      <c r="C15" s="15" t="s">
-        <v>46</v>
-      </c>
-      <c r="D15" s="16" t="s">
-        <v>47</v>
-      </c>
-      <c r="E15" s="60" t="s">
-        <v>48</v>
-      </c>
-      <c r="F15" s="61" t="s">
-        <v>49</v>
-      </c>
-      <c r="G15" s="15" t="s">
-        <v>50</v>
-      </c>
-      <c r="H15" s="16" t="s">
-        <v>51</v>
-      </c>
-      <c r="I15" s="98" t="s">
-        <v>52</v>
-      </c>
-      <c r="J15" s="99" t="s">
-        <v>53</v>
-      </c>
-      <c r="K15" s="97" t="s">
-        <v>29</v>
+      <c r="B15" s="24"/>
+      <c r="C15" s="15">
+        <v>13084454.51</v>
+      </c>
+      <c r="D15" s="16">
+        <v>40942495.97</v>
+      </c>
+      <c r="E15" s="52">
+        <v>106741161.89</v>
+      </c>
+      <c r="F15" s="53">
+        <v>283804442.56</v>
+      </c>
+      <c r="G15" s="52">
+        <v>275850395.6</v>
+      </c>
+      <c r="H15" s="53">
+        <v>29057395.32</v>
+      </c>
+      <c r="I15" s="86">
+        <f>SUM(C15:H15)</f>
+        <v>749480345.85</v>
+      </c>
+      <c r="J15" s="87">
+        <f>I15/$I$21</f>
+        <v>0.973091833011441</v>
+      </c>
+      <c r="K15" s="85" t="s">
+        <v>20</v>
       </c>
     </row>
     <row r="16" spans="2:11">
-      <c r="B16" s="23"/>
-      <c r="C16" s="15" t="s">
-        <v>54</v>
-      </c>
-      <c r="D16" s="16" t="s">
-        <v>55</v>
-      </c>
-      <c r="E16" s="60" t="s">
-        <v>56</v>
-      </c>
-      <c r="F16" s="61" t="s">
-        <v>57</v>
-      </c>
-      <c r="G16" s="15">
-        <v>5908125843</v>
-      </c>
-      <c r="H16" s="16">
-        <v>573124168</v>
-      </c>
-      <c r="I16" s="98" t="s">
-        <v>58</v>
-      </c>
-      <c r="J16" s="99" t="s">
-        <v>59</v>
-      </c>
-      <c r="K16" s="97" t="s">
-        <v>36</v>
+      <c r="B16" s="24"/>
+      <c r="C16" s="17">
+        <v>451188.09</v>
+      </c>
+      <c r="D16" s="16">
+        <v>233957.12</v>
+      </c>
+      <c r="E16" s="52">
+        <v>104341.31</v>
+      </c>
+      <c r="F16" s="53">
+        <v>80925.13</v>
+      </c>
+      <c r="G16" s="52">
+        <v>59081.25843</v>
+      </c>
+      <c r="H16" s="53">
+        <v>57312.4168</v>
+      </c>
+      <c r="I16" s="92">
+        <f>AVERAGE(C16:H16)</f>
+        <v>164467.554205</v>
+      </c>
+      <c r="J16" s="87">
+        <f>I16/$I$28</f>
+        <v>0.655269138608164</v>
+      </c>
+      <c r="K16" s="85" t="s">
+        <v>21</v>
       </c>
     </row>
     <row r="17" ht="15.75" spans="2:11">
-      <c r="B17" s="24"/>
-      <c r="C17" s="18" t="s">
-        <v>60</v>
-      </c>
-      <c r="D17" s="19" t="s">
-        <v>61</v>
-      </c>
-      <c r="E17" s="64" t="s">
-        <v>62</v>
-      </c>
-      <c r="F17" s="65" t="s">
+      <c r="B17" s="25"/>
+      <c r="C17" s="19">
+        <v>0.0175</v>
+      </c>
+      <c r="D17" s="20">
+        <v>0.0546</v>
+      </c>
+      <c r="E17" s="56">
+        <v>0.1424</v>
+      </c>
+      <c r="F17" s="57">
+        <v>0.3787</v>
+      </c>
+      <c r="G17" s="56">
+        <v>0.3681</v>
+      </c>
+      <c r="H17" s="57">
+        <v>0.0388</v>
+      </c>
+      <c r="I17" s="88">
+        <v>1</v>
+      </c>
+      <c r="J17" s="89"/>
+      <c r="K17" s="90" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="18" ht="9" customHeight="1" spans="2:11">
+      <c r="B18" s="21"/>
+      <c r="C18" s="22"/>
+      <c r="D18" s="22"/>
+      <c r="E18" s="22"/>
+      <c r="F18" s="22"/>
+      <c r="G18" s="22"/>
+      <c r="H18" s="22"/>
+      <c r="I18" s="22"/>
+      <c r="J18" s="22"/>
+      <c r="K18" s="91"/>
+    </row>
+    <row r="19" spans="2:11">
+      <c r="B19" s="26" t="s">
+        <v>25</v>
+      </c>
+      <c r="C19" s="10">
+        <f>C7+C13</f>
+        <v>272</v>
+      </c>
+      <c r="D19" s="11">
+        <f>D7+D13</f>
+        <v>211</v>
+      </c>
+      <c r="E19" s="48">
+        <f>E7+E13</f>
+        <v>233</v>
+      </c>
+      <c r="F19" s="49">
+        <f>F7+F13</f>
+        <v>189</v>
+      </c>
+      <c r="G19" s="10">
+        <f>G7+G13</f>
         <v>63</v>
       </c>
-      <c r="G17" s="18" t="s">
-        <v>64</v>
-      </c>
-      <c r="H17" s="19" t="s">
-        <v>65</v>
-      </c>
-      <c r="I17" s="100">
+      <c r="H19" s="11">
+        <f>H7+H13</f>
+        <v>2</v>
+      </c>
+      <c r="I19" s="93">
+        <f>I7+I13</f>
+        <v>970</v>
+      </c>
+      <c r="J19" s="94">
         <v>1</v>
       </c>
-      <c r="J17" s="101"/>
-      <c r="K17" s="102" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="18" ht="9" customHeight="1" spans="2:11">
-      <c r="B18" s="20"/>
-      <c r="C18" s="21"/>
-      <c r="D18" s="21"/>
-      <c r="E18" s="21"/>
-      <c r="F18" s="21"/>
-      <c r="G18" s="21"/>
-      <c r="H18" s="21"/>
-      <c r="I18" s="21"/>
-      <c r="J18" s="21"/>
-      <c r="K18" s="103"/>
-    </row>
-    <row r="19" spans="2:11">
-      <c r="B19" s="25" t="s">
-        <v>66</v>
-      </c>
-      <c r="C19" s="10">
+      <c r="K19" s="95" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="20" spans="2:11">
+      <c r="B20" s="27"/>
+      <c r="C20" s="13">
+        <f>C8+C14</f>
         <v>272</v>
       </c>
-      <c r="D19" s="11">
-        <v>211</v>
-      </c>
-      <c r="E19" s="52">
-        <v>233</v>
-      </c>
-      <c r="F19" s="53">
-        <v>189</v>
-      </c>
-      <c r="G19" s="10">
-        <v>63</v>
-      </c>
-      <c r="H19" s="11">
-        <v>2</v>
-      </c>
-      <c r="I19" s="92">
-        <v>970</v>
-      </c>
-      <c r="J19" s="104">
+      <c r="D20" s="14">
+        <f>D8+D14</f>
+        <v>498</v>
+      </c>
+      <c r="E20" s="50">
+        <f>E8+E14</f>
+        <v>1489</v>
+      </c>
+      <c r="F20" s="51">
+        <f>F8+F14</f>
+        <v>3693</v>
+      </c>
+      <c r="G20" s="13">
+        <f>G8+G14</f>
+        <v>4669</v>
+      </c>
+      <c r="H20" s="14">
+        <f>H8+H14</f>
+        <v>507</v>
+      </c>
+      <c r="I20" s="96">
+        <f>I8+I14</f>
+        <v>11128</v>
+      </c>
+      <c r="J20" s="97">
         <v>1</v>
       </c>
-      <c r="K19" s="105" t="s">
+      <c r="K20" s="98" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="21" spans="2:11">
+      <c r="B21" s="27"/>
+      <c r="C21" s="15">
+        <f>C9+C15</f>
+        <v>20175787.01</v>
+      </c>
+      <c r="D21" s="16">
+        <f>D9+D15</f>
+        <v>47426541.97</v>
+      </c>
+      <c r="E21" s="52">
+        <f>E9+E15</f>
+        <v>112588315.6</v>
+      </c>
+      <c r="F21" s="53">
+        <f>F9+F15</f>
+        <v>285106719.27</v>
+      </c>
+      <c r="G21" s="17">
+        <f>G9+G15</f>
+        <v>275850395.6</v>
+      </c>
+      <c r="H21" s="16">
+        <f>H9+H15</f>
+        <v>29057395.32</v>
+      </c>
+      <c r="I21" s="99">
+        <f>SUM(C21:H21)</f>
+        <v>770205154.77</v>
+      </c>
+      <c r="J21" s="100">
+        <v>1</v>
+      </c>
+      <c r="K21" s="98" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="20" spans="2:11">
-      <c r="B20" s="26"/>
-      <c r="C20" s="13">
-        <v>272</v>
-      </c>
-      <c r="D20" s="14">
-        <v>498</v>
-      </c>
-      <c r="E20" s="56">
-        <v>1489</v>
-      </c>
-      <c r="F20" s="57">
-        <v>3693</v>
-      </c>
-      <c r="G20" s="13">
-        <v>4669</v>
-      </c>
-      <c r="H20" s="14">
-        <v>507</v>
-      </c>
-      <c r="I20" s="95">
-        <v>11128</v>
-      </c>
-      <c r="J20" s="106">
+    <row r="22" spans="2:11">
+      <c r="B22" s="27"/>
+      <c r="C22" s="17">
+        <f>C21/C20</f>
+        <v>74175.6875367647</v>
+      </c>
+      <c r="D22" s="16">
+        <f>D21/D20</f>
+        <v>95234.0200200803</v>
+      </c>
+      <c r="E22" s="52">
+        <f>E21/E20</f>
+        <v>75613.3751511081</v>
+      </c>
+      <c r="F22" s="53">
+        <f>F21/F20</f>
+        <v>77201.9277741673</v>
+      </c>
+      <c r="G22" s="60">
+        <f>G21/G20</f>
+        <v>59081.2584279289</v>
+      </c>
+      <c r="H22" s="61">
+        <f>H21/H20</f>
+        <v>57312.4168047337</v>
+      </c>
+      <c r="I22" s="101">
+        <f>AVERAGE(C22:H22)</f>
+        <v>73103.1142857972</v>
+      </c>
+      <c r="J22" s="87">
+        <f>I22/I28</f>
+        <v>0.291256320793346</v>
+      </c>
+      <c r="K22" s="98" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="23" ht="15.75" spans="2:11">
+      <c r="B23" s="28"/>
+      <c r="C23" s="19">
+        <f>C21/$I$21</f>
+        <v>0.0261953414425341</v>
+      </c>
+      <c r="D23" s="20">
+        <f>D21/$I$21</f>
+        <v>0.0615765055274949</v>
+      </c>
+      <c r="E23" s="56">
+        <f>E21/$I$21</f>
+        <v>0.146179644348941</v>
+      </c>
+      <c r="F23" s="57">
+        <f>F21/$I$21</f>
+        <v>0.370169840469503</v>
+      </c>
+      <c r="G23" s="19">
+        <f>G21/$I$21</f>
+        <v>0.358151842910445</v>
+      </c>
+      <c r="H23" s="20">
+        <f>H21/$I$21</f>
+        <v>0.0377268253010812</v>
+      </c>
+      <c r="I23" s="102">
         <v>1</v>
       </c>
-      <c r="K20" s="63" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="21" spans="2:11">
-      <c r="B21" s="26"/>
-      <c r="C21" s="15" t="s">
-        <v>67</v>
-      </c>
-      <c r="D21" s="16" t="s">
-        <v>68</v>
-      </c>
-      <c r="E21" s="60" t="s">
-        <v>69</v>
-      </c>
-      <c r="F21" s="61" t="s">
-        <v>70</v>
-      </c>
-      <c r="G21" s="15" t="s">
-        <v>71</v>
-      </c>
-      <c r="H21" s="16" t="s">
-        <v>72</v>
-      </c>
-      <c r="I21" s="98" t="s">
-        <v>73</v>
-      </c>
-      <c r="J21" s="107">
-        <v>1</v>
-      </c>
-      <c r="K21" s="63" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="22" spans="2:11">
-      <c r="B22" s="26"/>
-      <c r="C22" s="15" t="s">
-        <v>74</v>
-      </c>
-      <c r="D22" s="16" t="s">
-        <v>75</v>
-      </c>
-      <c r="E22" s="60" t="s">
-        <v>76</v>
-      </c>
-      <c r="F22" s="61" t="s">
-        <v>77</v>
-      </c>
-      <c r="G22" s="15" t="s">
-        <v>78</v>
-      </c>
-      <c r="H22" s="16" t="s">
-        <v>79</v>
-      </c>
-      <c r="I22" s="108">
-        <v>7310311428</v>
-      </c>
-      <c r="J22" s="99" t="s">
-        <v>80</v>
-      </c>
-      <c r="K22" s="63" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="23" ht="15.75" spans="2:11">
-      <c r="B23" s="27"/>
-      <c r="C23" s="18" t="s">
-        <v>81</v>
-      </c>
-      <c r="D23" s="19" t="s">
-        <v>82</v>
-      </c>
-      <c r="E23" s="64" t="s">
-        <v>83</v>
-      </c>
-      <c r="F23" s="65" t="s">
-        <v>84</v>
-      </c>
-      <c r="G23" s="18" t="s">
-        <v>85</v>
-      </c>
-      <c r="H23" s="19" t="s">
-        <v>86</v>
-      </c>
-      <c r="I23" s="100">
-        <v>1</v>
-      </c>
-      <c r="J23" s="101"/>
-      <c r="K23" s="67" t="s">
-        <v>41</v>
+      <c r="J23" s="89"/>
+      <c r="K23" s="103" t="s">
+        <v>22</v>
       </c>
     </row>
     <row r="24" ht="9" customHeight="1" spans="2:11">
-      <c r="B24" s="28"/>
-      <c r="C24" s="29"/>
-      <c r="D24" s="29"/>
-      <c r="E24" s="29"/>
-      <c r="F24" s="29"/>
-      <c r="G24" s="29"/>
-      <c r="H24" s="29"/>
-      <c r="I24" s="29"/>
-      <c r="J24" s="29"/>
-      <c r="K24" s="109"/>
+      <c r="B24" s="29"/>
+      <c r="C24" s="30"/>
+      <c r="D24" s="30"/>
+      <c r="E24" s="30"/>
+      <c r="F24" s="30"/>
+      <c r="G24" s="30"/>
+      <c r="H24" s="30"/>
+      <c r="I24" s="30"/>
+      <c r="J24" s="30"/>
+      <c r="K24" s="104"/>
     </row>
     <row r="25" spans="2:11">
       <c r="B25" s="9" t="s">
-        <v>87</v>
+        <v>26</v>
       </c>
       <c r="C25" s="10">
+        <f>C13</f>
         <v>29</v>
       </c>
       <c r="D25" s="11">
+        <f>D13</f>
         <v>72</v>
       </c>
-      <c r="E25" s="68">
+      <c r="E25" s="62">
+        <f>SUM(E19:H19)</f>
         <v>487</v>
       </c>
-      <c r="F25" s="68"/>
-      <c r="G25" s="68"/>
-      <c r="H25" s="69"/>
-      <c r="I25" s="92">
+      <c r="F25" s="62"/>
+      <c r="G25" s="62"/>
+      <c r="H25" s="63"/>
+      <c r="I25" s="93">
+        <f>SUM(C25:H25)</f>
         <v>588</v>
       </c>
-      <c r="J25" s="93" t="s">
-        <v>88</v>
-      </c>
-      <c r="K25" s="105" t="s">
-        <v>20</v>
+      <c r="J25" s="105">
+        <f>I25/I19</f>
+        <v>0.606185567010309</v>
+      </c>
+      <c r="K25" s="95" t="s">
+        <v>18</v>
       </c>
     </row>
     <row r="26" spans="2:11">
@@ -2870,222 +2660,253 @@
       <c r="D26" s="14">
         <v>175</v>
       </c>
-      <c r="E26" s="70">
+      <c r="E26" s="64">
+        <f>SUM(E20:H20)</f>
         <v>10358</v>
       </c>
-      <c r="F26" s="70"/>
-      <c r="G26" s="70"/>
-      <c r="H26" s="71"/>
-      <c r="I26" s="95">
+      <c r="F26" s="64"/>
+      <c r="G26" s="64"/>
+      <c r="H26" s="65"/>
+      <c r="I26" s="96">
+        <f>SUM(C26:H26)</f>
         <v>10562</v>
       </c>
-      <c r="J26" s="96" t="s">
-        <v>89</v>
-      </c>
-      <c r="K26" s="63" t="s">
-        <v>45</v>
+      <c r="J26" s="84">
+        <f>I26/I20</f>
+        <v>0.949137311286844</v>
+      </c>
+      <c r="K26" s="98" t="s">
+        <v>24</v>
       </c>
     </row>
     <row r="27" spans="2:11">
       <c r="B27" s="12"/>
-      <c r="C27" s="15" t="s">
-        <v>90</v>
-      </c>
-      <c r="D27" s="16" t="s">
-        <v>91</v>
-      </c>
-      <c r="E27" s="72" t="s">
-        <v>92</v>
-      </c>
-      <c r="F27" s="72"/>
-      <c r="G27" s="72"/>
-      <c r="H27" s="73"/>
-      <c r="I27" s="98" t="s">
-        <v>93</v>
-      </c>
-      <c r="J27" s="99" t="s">
-        <v>94</v>
-      </c>
-      <c r="K27" s="63" t="s">
-        <v>29</v>
+      <c r="C27" s="17">
+        <f>C15</f>
+        <v>13084454.51</v>
+      </c>
+      <c r="D27" s="16">
+        <f>D15</f>
+        <v>40942495.97</v>
+      </c>
+      <c r="E27" s="66">
+        <f>SUM(E21:H21)</f>
+        <v>702602825.79</v>
+      </c>
+      <c r="F27" s="66"/>
+      <c r="G27" s="66"/>
+      <c r="H27" s="67"/>
+      <c r="I27" s="99">
+        <f>SUM(C27:H27)</f>
+        <v>756629776.27</v>
+      </c>
+      <c r="J27" s="87">
+        <f>I27/I21</f>
+        <v>0.982374334401782</v>
+      </c>
+      <c r="K27" s="98" t="s">
+        <v>20</v>
       </c>
     </row>
     <row r="28" spans="2:11">
       <c r="B28" s="12"/>
-      <c r="C28" s="15" t="s">
-        <v>54</v>
-      </c>
-      <c r="D28" s="16" t="s">
-        <v>55</v>
-      </c>
-      <c r="E28" s="72" t="s">
-        <v>95</v>
-      </c>
-      <c r="F28" s="72"/>
-      <c r="G28" s="72"/>
-      <c r="H28" s="73"/>
-      <c r="I28" s="98" t="s">
-        <v>96</v>
-      </c>
-      <c r="J28" s="107">
+      <c r="C28" s="17">
+        <f>C16</f>
+        <v>451188.09</v>
+      </c>
+      <c r="D28" s="16">
+        <f>D16</f>
+        <v>233957.12</v>
+      </c>
+      <c r="E28" s="66">
+        <f>E27/E26</f>
+        <v>67831.9005396795</v>
+      </c>
+      <c r="F28" s="66"/>
+      <c r="G28" s="66"/>
+      <c r="H28" s="67"/>
+      <c r="I28" s="101">
+        <f>AVERAGE(C28:H28)</f>
+        <v>250992.370179893</v>
+      </c>
+      <c r="J28" s="100">
         <v>1</v>
       </c>
-      <c r="K28" s="63" t="s">
-        <v>36</v>
+      <c r="K28" s="98" t="s">
+        <v>21</v>
       </c>
     </row>
     <row r="29" ht="15.75" spans="2:11">
-      <c r="B29" s="17"/>
-      <c r="C29" s="18" t="s">
-        <v>97</v>
-      </c>
-      <c r="D29" s="19" t="s">
-        <v>98</v>
-      </c>
-      <c r="E29" s="74" t="s">
-        <v>99</v>
-      </c>
-      <c r="F29" s="74"/>
-      <c r="G29" s="74"/>
-      <c r="H29" s="75"/>
-      <c r="I29" s="100">
+      <c r="B29" s="18"/>
+      <c r="C29" s="19">
+        <f>C27/I27</f>
+        <v>0.0172930737335017</v>
+      </c>
+      <c r="D29" s="20">
+        <f>D27/I27</f>
+        <v>0.0541116636617667</v>
+      </c>
+      <c r="E29" s="68">
+        <f>E27/I27</f>
+        <v>0.928595262604732</v>
+      </c>
+      <c r="F29" s="69"/>
+      <c r="G29" s="69"/>
+      <c r="H29" s="70"/>
+      <c r="I29" s="102">
         <v>1</v>
       </c>
-      <c r="J29" s="101"/>
-      <c r="K29" s="67" t="s">
-        <v>41</v>
+      <c r="J29" s="89"/>
+      <c r="K29" s="103" t="s">
+        <v>22</v>
       </c>
     </row>
     <row r="30" ht="15.75"/>
     <row r="31" spans="2:11">
-      <c r="B31" s="30" t="s">
-        <v>100</v>
+      <c r="B31" s="31" t="s">
+        <v>27</v>
       </c>
       <c r="C31" s="31" t="s">
-        <v>101</v>
+        <v>28</v>
       </c>
       <c r="D31" s="32"/>
-      <c r="E31" s="76" t="s">
-        <v>102</v>
-      </c>
-      <c r="F31" s="77"/>
+      <c r="E31" s="71" t="s">
+        <v>29</v>
+      </c>
+      <c r="F31" s="71"/>
       <c r="G31" s="31" t="s">
-        <v>103</v>
+        <v>30</v>
       </c>
       <c r="H31" s="32"/>
-      <c r="I31" s="76" t="s">
-        <v>104</v>
-      </c>
-      <c r="J31" s="77"/>
-      <c r="K31" s="110" t="s">
-        <v>105</v>
+      <c r="I31" s="71" t="s">
+        <v>31</v>
+      </c>
+      <c r="J31" s="71"/>
+      <c r="K31" s="106" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="32" spans="2:11">
       <c r="B32" s="33"/>
-      <c r="C32" s="34"/>
-      <c r="D32" s="35"/>
-      <c r="E32" s="78"/>
-      <c r="F32" s="79"/>
-      <c r="G32" s="34"/>
-      <c r="H32" s="35"/>
-      <c r="I32" s="78"/>
-      <c r="J32" s="79"/>
-      <c r="K32" s="111"/>
+      <c r="C32" s="33"/>
+      <c r="D32" s="34"/>
+      <c r="E32" s="72"/>
+      <c r="F32" s="72"/>
+      <c r="G32" s="33"/>
+      <c r="H32" s="34"/>
+      <c r="I32" s="72"/>
+      <c r="J32" s="72"/>
+      <c r="K32" s="107"/>
     </row>
     <row r="33" ht="18" customHeight="1" spans="2:11">
-      <c r="B33" s="36" t="s">
-        <v>106</v>
-      </c>
-      <c r="C33" s="37">
+      <c r="B33" s="35" t="s">
+        <v>33</v>
+      </c>
+      <c r="C33" s="36">
+        <f>C7+D7</f>
         <v>382</v>
       </c>
-      <c r="D33" s="38"/>
-      <c r="E33" s="37">
+      <c r="D33" s="37"/>
+      <c r="E33" s="36">
+        <f>C13</f>
         <v>29</v>
       </c>
-      <c r="F33" s="38"/>
-      <c r="G33" s="37">
+      <c r="F33" s="37"/>
+      <c r="G33" s="36">
+        <f>D13</f>
         <v>72</v>
       </c>
-      <c r="H33" s="38"/>
-      <c r="I33" s="37">
+      <c r="H33" s="37"/>
+      <c r="I33" s="36">
+        <f>E25</f>
         <v>487</v>
       </c>
-      <c r="J33" s="38"/>
-      <c r="K33" s="112">
+      <c r="J33" s="37"/>
+      <c r="K33" s="37">
         <v>970</v>
       </c>
     </row>
     <row r="34" ht="18" customHeight="1" spans="2:11">
-      <c r="B34" s="39" t="s">
+      <c r="B34" s="38" t="s">
         <v>5</v>
       </c>
-      <c r="C34" s="40" t="s">
-        <v>107</v>
-      </c>
-      <c r="D34" s="41"/>
-      <c r="E34" s="40" t="s">
-        <v>108</v>
-      </c>
-      <c r="F34" s="41"/>
-      <c r="G34" s="40" t="s">
-        <v>109</v>
-      </c>
-      <c r="H34" s="41"/>
-      <c r="I34" s="40" t="s">
-        <v>110</v>
-      </c>
-      <c r="J34" s="41"/>
-      <c r="K34" s="113">
+      <c r="C34" s="39">
+        <f>C33/$K$33</f>
+        <v>0.393814432989691</v>
+      </c>
+      <c r="D34" s="40"/>
+      <c r="E34" s="39">
+        <f>E33/$K$33</f>
+        <v>0.0298969072164948</v>
+      </c>
+      <c r="F34" s="40"/>
+      <c r="G34" s="39">
+        <f>G33/$K$33</f>
+        <v>0.0742268041237113</v>
+      </c>
+      <c r="H34" s="40"/>
+      <c r="I34" s="39">
+        <f>I33/$K$33</f>
+        <v>0.502061855670103</v>
+      </c>
+      <c r="J34" s="40"/>
+      <c r="K34" s="108">
         <v>1</v>
       </c>
     </row>
     <row r="35" ht="18" customHeight="1" spans="2:11">
-      <c r="B35" s="36" t="s">
-        <v>111</v>
-      </c>
-      <c r="C35" s="42" t="s">
-        <v>112</v>
-      </c>
-      <c r="D35" s="43"/>
-      <c r="E35" s="42" t="s">
-        <v>90</v>
-      </c>
-      <c r="F35" s="43"/>
-      <c r="G35" s="42" t="s">
-        <v>91</v>
-      </c>
-      <c r="H35" s="43"/>
-      <c r="I35" s="42" t="s">
-        <v>92</v>
-      </c>
-      <c r="J35" s="43"/>
-      <c r="K35" s="114" t="s">
-        <v>73</v>
+      <c r="B35" s="35" t="s">
+        <v>34</v>
+      </c>
+      <c r="C35" s="36">
+        <f>C9+D9</f>
+        <v>13575378.5</v>
+      </c>
+      <c r="D35" s="37"/>
+      <c r="E35" s="36">
+        <f>C15</f>
+        <v>13084454.51</v>
+      </c>
+      <c r="F35" s="37"/>
+      <c r="G35" s="36">
+        <f>D15</f>
+        <v>40942495.97</v>
+      </c>
+      <c r="H35" s="37"/>
+      <c r="I35" s="36">
+        <f>E27</f>
+        <v>702602825.79</v>
+      </c>
+      <c r="J35" s="37"/>
+      <c r="K35" s="37">
+        <v>770205154.8</v>
       </c>
     </row>
     <row r="36" ht="18" customHeight="1" spans="2:11">
-      <c r="B36" s="39" t="s">
+      <c r="B36" s="38" t="s">
         <v>5</v>
       </c>
-      <c r="C36" s="40" t="s">
-        <v>113</v>
-      </c>
-      <c r="D36" s="41"/>
-      <c r="E36" s="40" t="s">
-        <v>114</v>
-      </c>
-      <c r="F36" s="41"/>
-      <c r="G36" s="40" t="s">
-        <v>115</v>
-      </c>
-      <c r="H36" s="41"/>
-      <c r="I36" s="40" t="s">
-        <v>116</v>
-      </c>
-      <c r="J36" s="41"/>
-      <c r="K36" s="113">
+      <c r="C36" s="39">
+        <f>C35/$K$35</f>
+        <v>0.0176256655975318</v>
+      </c>
+      <c r="D36" s="40"/>
+      <c r="E36" s="39">
+        <f>E35/$K$35</f>
+        <v>0.016988271798048</v>
+      </c>
+      <c r="F36" s="40"/>
+      <c r="G36" s="39">
+        <f>G35/$K$35</f>
+        <v>0.0531579095710306</v>
+      </c>
+      <c r="H36" s="40"/>
+      <c r="I36" s="39">
+        <f>I35/$K$35</f>
+        <v>0.912228152994439</v>
+      </c>
+      <c r="J36" s="40"/>
+      <c r="K36" s="108">
         <v>1</v>
       </c>
     </row>
